--- a/dataset/bingli_train.xlsx
+++ b/dataset/bingli_train.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjj\Desktop\病例审查统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5E675E-F8B3-42A2-9195-BD7BC85DB2FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854DEF32-678F-4849-8E8C-324397A5E0C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="240" windowWidth="18864" windowHeight="11544" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="708" windowWidth="18864" windowHeight="11544" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -112,6 +112,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF606266"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -165,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -187,6 +195,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI252"/>
+  <dimension ref="A1:AMI295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K176" sqref="K176"/>
+    <sheetView tabSelected="1" topLeftCell="A264" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K255" sqref="K255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9916,9 +9933,1600 @@
         <v>0</v>
       </c>
     </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>257</v>
+      </c>
+      <c r="B253" s="8">
+        <v>347</v>
+      </c>
+      <c r="C253" s="8">
+        <v>1804306</v>
+      </c>
+      <c r="D253" s="8">
+        <v>20459</v>
+      </c>
+      <c r="E253" s="8">
+        <v>2999</v>
+      </c>
+      <c r="F253" s="8">
+        <v>99429</v>
+      </c>
+      <c r="G253" s="8">
+        <v>1131</v>
+      </c>
+      <c r="H253" s="8">
+        <v>23458</v>
+      </c>
+      <c r="I253" s="9">
+        <f t="shared" ref="I253:I295" si="14">E253/H253</f>
+        <v>0.12784551112626821</v>
+      </c>
+      <c r="J253" s="9">
+        <f t="shared" ref="J253:J295" si="15">E253/G253</f>
+        <v>2.651635720601238</v>
+      </c>
+      <c r="K253" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>258</v>
+      </c>
+      <c r="B254" s="8">
+        <v>349</v>
+      </c>
+      <c r="C254" s="8">
+        <v>1804038</v>
+      </c>
+      <c r="D254" s="8">
+        <v>35775</v>
+      </c>
+      <c r="E254" s="8">
+        <v>2122</v>
+      </c>
+      <c r="F254" s="8">
+        <v>130579</v>
+      </c>
+      <c r="G254" s="8">
+        <v>1106</v>
+      </c>
+      <c r="H254" s="8">
+        <v>37897</v>
+      </c>
+      <c r="I254" s="9">
+        <f t="shared" si="14"/>
+        <v>5.5993878143388659E-2</v>
+      </c>
+      <c r="J254" s="9">
+        <f t="shared" si="15"/>
+        <v>1.9186256781193489</v>
+      </c>
+      <c r="K254" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>259</v>
+      </c>
+      <c r="B255" s="8">
+        <v>350</v>
+      </c>
+      <c r="C255" s="8">
+        <v>1804014</v>
+      </c>
+      <c r="D255" s="8">
+        <v>50612</v>
+      </c>
+      <c r="E255" s="8">
+        <v>4714</v>
+      </c>
+      <c r="F255" s="8">
+        <v>76068</v>
+      </c>
+      <c r="G255" s="8">
+        <v>1124</v>
+      </c>
+      <c r="H255" s="8">
+        <v>55326</v>
+      </c>
+      <c r="I255" s="9">
+        <f t="shared" si="14"/>
+        <v>8.5204063189097345E-2</v>
+      </c>
+      <c r="J255" s="9">
+        <f t="shared" si="15"/>
+        <v>4.1939501779359434</v>
+      </c>
+      <c r="K255" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>260</v>
+      </c>
+      <c r="B256" s="8">
+        <v>351</v>
+      </c>
+      <c r="C256" s="8">
+        <v>1803982</v>
+      </c>
+      <c r="D256" s="8">
+        <v>12505</v>
+      </c>
+      <c r="E256" s="8">
+        <v>1029</v>
+      </c>
+      <c r="F256" s="8">
+        <v>68539</v>
+      </c>
+      <c r="G256" s="8">
+        <v>1121</v>
+      </c>
+      <c r="H256" s="8">
+        <v>13534</v>
+      </c>
+      <c r="I256" s="9">
+        <f t="shared" si="14"/>
+        <v>7.6030737402098425E-2</v>
+      </c>
+      <c r="J256" s="9">
+        <f t="shared" si="15"/>
+        <v>0.91793041926851027</v>
+      </c>
+      <c r="K256" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>261</v>
+      </c>
+      <c r="B257" s="8">
+        <v>352</v>
+      </c>
+      <c r="C257" s="8">
+        <v>1803944</v>
+      </c>
+      <c r="D257" s="8">
+        <v>28911</v>
+      </c>
+      <c r="E257" s="8">
+        <v>3076</v>
+      </c>
+      <c r="F257" s="8">
+        <v>82293</v>
+      </c>
+      <c r="G257" s="8">
+        <v>1120</v>
+      </c>
+      <c r="H257" s="8">
+        <v>31987</v>
+      </c>
+      <c r="I257" s="9">
+        <f t="shared" si="14"/>
+        <v>9.6164066652077412E-2</v>
+      </c>
+      <c r="J257" s="9">
+        <f t="shared" si="15"/>
+        <v>2.7464285714285714</v>
+      </c>
+      <c r="K257" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>262</v>
+      </c>
+      <c r="B258" s="8">
+        <v>353</v>
+      </c>
+      <c r="C258" s="8">
+        <v>1803923</v>
+      </c>
+      <c r="D258" s="8">
+        <v>65938</v>
+      </c>
+      <c r="E258" s="8">
+        <v>3624</v>
+      </c>
+      <c r="F258" s="8">
+        <v>63943</v>
+      </c>
+      <c r="G258" s="8">
+        <v>1084</v>
+      </c>
+      <c r="H258" s="8">
+        <v>69562</v>
+      </c>
+      <c r="I258" s="9">
+        <f t="shared" si="14"/>
+        <v>5.2097409505189617E-2</v>
+      </c>
+      <c r="J258" s="9">
+        <f t="shared" si="15"/>
+        <v>3.3431734317343174</v>
+      </c>
+      <c r="K258" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>263</v>
+      </c>
+      <c r="B259" s="8">
+        <v>354</v>
+      </c>
+      <c r="C259" s="8">
+        <v>1803910</v>
+      </c>
+      <c r="D259" s="8">
+        <v>70189</v>
+      </c>
+      <c r="E259" s="8">
+        <v>7142</v>
+      </c>
+      <c r="F259" s="8">
+        <v>73897</v>
+      </c>
+      <c r="G259" s="8">
+        <v>1115</v>
+      </c>
+      <c r="H259" s="8">
+        <v>77331</v>
+      </c>
+      <c r="I259" s="9">
+        <f t="shared" si="14"/>
+        <v>9.2356234886397437E-2</v>
+      </c>
+      <c r="J259" s="9">
+        <f t="shared" si="15"/>
+        <v>6.4053811659192821</v>
+      </c>
+      <c r="K259" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>264</v>
+      </c>
+      <c r="B260" s="8">
+        <v>355</v>
+      </c>
+      <c r="C260" s="8">
+        <v>1803905</v>
+      </c>
+      <c r="D260" s="8">
+        <v>21770</v>
+      </c>
+      <c r="E260" s="8">
+        <v>4876</v>
+      </c>
+      <c r="F260" s="8">
+        <v>81157</v>
+      </c>
+      <c r="G260" s="8">
+        <v>1112</v>
+      </c>
+      <c r="H260" s="8">
+        <v>26646</v>
+      </c>
+      <c r="I260" s="9">
+        <f t="shared" si="14"/>
+        <v>0.18299181865946107</v>
+      </c>
+      <c r="J260" s="9">
+        <f t="shared" si="15"/>
+        <v>4.3848920863309351</v>
+      </c>
+      <c r="K260" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>265</v>
+      </c>
+      <c r="B261" s="8">
+        <v>356</v>
+      </c>
+      <c r="C261" s="8">
+        <v>1803898</v>
+      </c>
+      <c r="D261" s="8">
+        <v>62656</v>
+      </c>
+      <c r="E261" s="8">
+        <v>4979</v>
+      </c>
+      <c r="F261" s="8">
+        <v>58718</v>
+      </c>
+      <c r="G261" s="8">
+        <v>1124</v>
+      </c>
+      <c r="H261" s="8">
+        <v>67635</v>
+      </c>
+      <c r="I261" s="9">
+        <f t="shared" si="14"/>
+        <v>7.3615731499963033E-2</v>
+      </c>
+      <c r="J261" s="9">
+        <f t="shared" si="15"/>
+        <v>4.4297153024911031</v>
+      </c>
+      <c r="K261" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>266</v>
+      </c>
+      <c r="B262" s="8">
+        <v>358</v>
+      </c>
+      <c r="C262" s="8">
+        <v>1803559</v>
+      </c>
+      <c r="D262" s="8">
+        <v>17282</v>
+      </c>
+      <c r="E262" s="8">
+        <v>4303</v>
+      </c>
+      <c r="F262" s="8">
+        <v>86676</v>
+      </c>
+      <c r="G262" s="8">
+        <v>1116</v>
+      </c>
+      <c r="H262" s="8">
+        <v>21585</v>
+      </c>
+      <c r="I262" s="9">
+        <f t="shared" si="14"/>
+        <v>0.19935140143618255</v>
+      </c>
+      <c r="J262" s="9">
+        <f t="shared" si="15"/>
+        <v>3.8557347670250897</v>
+      </c>
+      <c r="K262" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>267</v>
+      </c>
+      <c r="B263" s="8">
+        <v>494</v>
+      </c>
+      <c r="C263" s="8">
+        <v>1803558</v>
+      </c>
+      <c r="D263" s="8">
+        <v>12353</v>
+      </c>
+      <c r="E263" s="8">
+        <v>1066</v>
+      </c>
+      <c r="F263" s="8">
+        <v>45261</v>
+      </c>
+      <c r="G263" s="8">
+        <v>1107</v>
+      </c>
+      <c r="H263" s="8">
+        <v>13419</v>
+      </c>
+      <c r="I263" s="9">
+        <f t="shared" si="14"/>
+        <v>7.9439600566361124E-2</v>
+      </c>
+      <c r="J263" s="9">
+        <f t="shared" si="15"/>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="K263" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>268</v>
+      </c>
+      <c r="B264" s="8">
+        <v>496</v>
+      </c>
+      <c r="C264" s="8">
+        <v>1803548</v>
+      </c>
+      <c r="D264" s="8">
+        <v>79345</v>
+      </c>
+      <c r="E264" s="8">
+        <v>3384</v>
+      </c>
+      <c r="F264" s="8">
+        <v>75710</v>
+      </c>
+      <c r="G264" s="8">
+        <v>1131</v>
+      </c>
+      <c r="H264" s="8">
+        <v>82729</v>
+      </c>
+      <c r="I264" s="9">
+        <f t="shared" si="14"/>
+        <v>4.090464045256198E-2</v>
+      </c>
+      <c r="J264" s="9">
+        <f t="shared" si="15"/>
+        <v>2.9920424403183024</v>
+      </c>
+      <c r="K264" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>269</v>
+      </c>
+      <c r="B265" s="8">
+        <v>502</v>
+      </c>
+      <c r="C265" s="8">
+        <v>1803532</v>
+      </c>
+      <c r="D265" s="8">
+        <v>44968</v>
+      </c>
+      <c r="E265" s="8">
+        <v>13054</v>
+      </c>
+      <c r="F265" s="8">
+        <v>80740</v>
+      </c>
+      <c r="G265" s="8">
+        <v>1128</v>
+      </c>
+      <c r="H265" s="8">
+        <v>58022</v>
+      </c>
+      <c r="I265" s="9">
+        <f t="shared" si="14"/>
+        <v>0.22498362690014131</v>
+      </c>
+      <c r="J265" s="9">
+        <f t="shared" si="15"/>
+        <v>11.572695035460994</v>
+      </c>
+      <c r="K265" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>270</v>
+      </c>
+      <c r="B266" s="8">
+        <v>504</v>
+      </c>
+      <c r="C266" s="8">
+        <v>1803479</v>
+      </c>
+      <c r="D266" s="8">
+        <v>26761</v>
+      </c>
+      <c r="E266" s="8">
+        <v>3496</v>
+      </c>
+      <c r="F266" s="8">
+        <v>73950</v>
+      </c>
+      <c r="G266" s="8">
+        <v>1133</v>
+      </c>
+      <c r="H266" s="8">
+        <v>30257</v>
+      </c>
+      <c r="I266" s="9">
+        <f t="shared" si="14"/>
+        <v>0.11554351059259015</v>
+      </c>
+      <c r="J266" s="9">
+        <f t="shared" si="15"/>
+        <v>3.0856134157105033</v>
+      </c>
+      <c r="K266" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>271</v>
+      </c>
+      <c r="B267" s="8">
+        <v>506</v>
+      </c>
+      <c r="C267" s="8">
+        <v>1803472</v>
+      </c>
+      <c r="D267" s="8">
+        <v>38192</v>
+      </c>
+      <c r="E267" s="8">
+        <v>3931</v>
+      </c>
+      <c r="F267" s="8">
+        <v>95940</v>
+      </c>
+      <c r="G267" s="8">
+        <v>1138</v>
+      </c>
+      <c r="H267" s="8">
+        <v>42123</v>
+      </c>
+      <c r="I267" s="9">
+        <f t="shared" si="14"/>
+        <v>9.3321938133561239E-2</v>
+      </c>
+      <c r="J267" s="9">
+        <f t="shared" si="15"/>
+        <v>3.4543057996485063</v>
+      </c>
+      <c r="K267" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>272</v>
+      </c>
+      <c r="B268" s="8">
+        <v>507</v>
+      </c>
+      <c r="C268" s="8">
+        <v>1803437</v>
+      </c>
+      <c r="D268" s="8">
+        <v>34097</v>
+      </c>
+      <c r="E268" s="8">
+        <v>15928</v>
+      </c>
+      <c r="F268" s="8">
+        <v>144091</v>
+      </c>
+      <c r="G268" s="8">
+        <v>1127</v>
+      </c>
+      <c r="H268" s="8">
+        <v>50025</v>
+      </c>
+      <c r="I268" s="9">
+        <f t="shared" si="14"/>
+        <v>0.3184007996001999</v>
+      </c>
+      <c r="J268" s="9">
+        <f t="shared" si="15"/>
+        <v>14.133096716947648</v>
+      </c>
+      <c r="K268" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>273</v>
+      </c>
+      <c r="B269" s="8">
+        <v>510</v>
+      </c>
+      <c r="C269" s="8">
+        <v>1803591</v>
+      </c>
+      <c r="D269" s="8">
+        <v>6037</v>
+      </c>
+      <c r="E269" s="8">
+        <v>6020</v>
+      </c>
+      <c r="F269" s="8">
+        <v>57617</v>
+      </c>
+      <c r="G269" s="8">
+        <v>1130</v>
+      </c>
+      <c r="H269" s="8">
+        <v>12057</v>
+      </c>
+      <c r="I269" s="9">
+        <f t="shared" si="14"/>
+        <v>0.49929501534378368</v>
+      </c>
+      <c r="J269" s="9">
+        <f t="shared" si="15"/>
+        <v>5.3274336283185839</v>
+      </c>
+      <c r="K269" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>274</v>
+      </c>
+      <c r="B270" s="8">
+        <v>511</v>
+      </c>
+      <c r="C270" s="8">
+        <v>1803570</v>
+      </c>
+      <c r="D270" s="8">
+        <v>25184</v>
+      </c>
+      <c r="E270" s="8">
+        <v>3330</v>
+      </c>
+      <c r="F270" s="8">
+        <v>74654</v>
+      </c>
+      <c r="G270" s="8">
+        <v>1134</v>
+      </c>
+      <c r="H270" s="8">
+        <v>28514</v>
+      </c>
+      <c r="I270" s="9">
+        <f t="shared" si="14"/>
+        <v>0.11678473732201726</v>
+      </c>
+      <c r="J270" s="9">
+        <f t="shared" si="15"/>
+        <v>2.9365079365079363</v>
+      </c>
+      <c r="K270" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>275</v>
+      </c>
+      <c r="B271" s="8">
+        <v>513</v>
+      </c>
+      <c r="C271" s="8">
+        <v>1803459</v>
+      </c>
+      <c r="D271" s="8">
+        <v>57809</v>
+      </c>
+      <c r="E271" s="8">
+        <v>6498</v>
+      </c>
+      <c r="F271" s="8">
+        <v>91615</v>
+      </c>
+      <c r="G271" s="8">
+        <v>1113</v>
+      </c>
+      <c r="H271" s="8">
+        <v>64307</v>
+      </c>
+      <c r="I271" s="9">
+        <f t="shared" si="14"/>
+        <v>0.10104654236708289</v>
+      </c>
+      <c r="J271" s="9">
+        <f t="shared" si="15"/>
+        <v>5.8382749326145555</v>
+      </c>
+      <c r="K271" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>276</v>
+      </c>
+      <c r="B272" s="8">
+        <v>515</v>
+      </c>
+      <c r="C272" s="8">
+        <v>1803449</v>
+      </c>
+      <c r="D272" s="8">
+        <v>60968</v>
+      </c>
+      <c r="E272" s="8">
+        <v>3460</v>
+      </c>
+      <c r="F272" s="8">
+        <v>104265</v>
+      </c>
+      <c r="G272" s="8">
+        <v>1132</v>
+      </c>
+      <c r="H272" s="8">
+        <v>64428</v>
+      </c>
+      <c r="I272" s="9">
+        <f t="shared" si="14"/>
+        <v>5.3703358788104553E-2</v>
+      </c>
+      <c r="J272" s="9">
+        <f t="shared" si="15"/>
+        <v>3.0565371024734982</v>
+      </c>
+      <c r="K272" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>277</v>
+      </c>
+      <c r="B273" s="8">
+        <v>520</v>
+      </c>
+      <c r="C273" s="8">
+        <v>1803434</v>
+      </c>
+      <c r="D273" s="8">
+        <v>29442</v>
+      </c>
+      <c r="E273" s="8">
+        <v>5064</v>
+      </c>
+      <c r="F273" s="8">
+        <v>108311</v>
+      </c>
+      <c r="G273" s="8">
+        <v>1123</v>
+      </c>
+      <c r="H273" s="8">
+        <v>34506</v>
+      </c>
+      <c r="I273" s="9">
+        <f t="shared" si="14"/>
+        <v>0.14675708572422189</v>
+      </c>
+      <c r="J273" s="9">
+        <f t="shared" si="15"/>
+        <v>4.5093499554764023</v>
+      </c>
+      <c r="K273" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>278</v>
+      </c>
+      <c r="B274" s="8">
+        <v>522</v>
+      </c>
+      <c r="C274" s="8">
+        <v>1803407</v>
+      </c>
+      <c r="D274" s="8">
+        <v>44506</v>
+      </c>
+      <c r="E274" s="8">
+        <v>11482</v>
+      </c>
+      <c r="F274" s="8">
+        <v>81535</v>
+      </c>
+      <c r="G274" s="8">
+        <v>1107</v>
+      </c>
+      <c r="H274" s="8">
+        <v>55988</v>
+      </c>
+      <c r="I274" s="9">
+        <f t="shared" si="14"/>
+        <v>0.20507965992712723</v>
+      </c>
+      <c r="J274" s="9">
+        <f t="shared" si="15"/>
+        <v>10.372177055103885</v>
+      </c>
+      <c r="K274" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>279</v>
+      </c>
+      <c r="B275" s="8">
+        <v>524</v>
+      </c>
+      <c r="C275" s="8">
+        <v>1803553</v>
+      </c>
+      <c r="D275" s="8">
+        <v>26484</v>
+      </c>
+      <c r="E275" s="8">
+        <v>4106</v>
+      </c>
+      <c r="F275" s="8">
+        <v>74569</v>
+      </c>
+      <c r="G275" s="8">
+        <v>1096</v>
+      </c>
+      <c r="H275" s="8">
+        <v>30590</v>
+      </c>
+      <c r="I275" s="9">
+        <f t="shared" si="14"/>
+        <v>0.1342268715266427</v>
+      </c>
+      <c r="J275" s="9">
+        <f t="shared" si="15"/>
+        <v>3.7463503649635035</v>
+      </c>
+      <c r="K275" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>280</v>
+      </c>
+      <c r="B276" s="8">
+        <v>526</v>
+      </c>
+      <c r="C276" s="8">
+        <v>1803339</v>
+      </c>
+      <c r="D276" s="8">
+        <v>31565</v>
+      </c>
+      <c r="E276" s="8">
+        <v>3717</v>
+      </c>
+      <c r="F276" s="8">
+        <v>81556</v>
+      </c>
+      <c r="G276" s="8">
+        <v>1108</v>
+      </c>
+      <c r="H276" s="8">
+        <v>35282</v>
+      </c>
+      <c r="I276" s="9">
+        <f t="shared" si="14"/>
+        <v>0.10535117056856187</v>
+      </c>
+      <c r="J276" s="9">
+        <f t="shared" si="15"/>
+        <v>3.354693140794224</v>
+      </c>
+      <c r="K276" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>281</v>
+      </c>
+      <c r="B277" s="8">
+        <v>527</v>
+      </c>
+      <c r="C277" s="8">
+        <v>1803310</v>
+      </c>
+      <c r="D277" s="8">
+        <v>77780</v>
+      </c>
+      <c r="E277" s="8">
+        <v>9248</v>
+      </c>
+      <c r="F277" s="8">
+        <v>107678</v>
+      </c>
+      <c r="G277" s="8">
+        <v>1129</v>
+      </c>
+      <c r="H277" s="8">
+        <v>87028</v>
+      </c>
+      <c r="I277" s="9">
+        <f t="shared" si="14"/>
+        <v>0.10626465045732408</v>
+      </c>
+      <c r="J277" s="9">
+        <f t="shared" si="15"/>
+        <v>8.1913197519929142</v>
+      </c>
+      <c r="K277" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>282</v>
+      </c>
+      <c r="B278" s="8">
+        <v>493</v>
+      </c>
+      <c r="C278" s="8">
+        <v>1903283</v>
+      </c>
+      <c r="D278" s="8">
+        <v>39910</v>
+      </c>
+      <c r="E278" s="8">
+        <v>689</v>
+      </c>
+      <c r="F278" s="8">
+        <v>42956</v>
+      </c>
+      <c r="G278" s="8">
+        <v>1292</v>
+      </c>
+      <c r="H278" s="8">
+        <v>40599</v>
+      </c>
+      <c r="I278" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6970861351264809E-2</v>
+      </c>
+      <c r="J278" s="9">
+        <f t="shared" si="15"/>
+        <v>0.53328173374613008</v>
+      </c>
+      <c r="K278" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>283</v>
+      </c>
+      <c r="B279" s="8">
+        <v>497</v>
+      </c>
+      <c r="C279" s="8">
+        <v>1903292</v>
+      </c>
+      <c r="D279" s="8">
+        <v>6732</v>
+      </c>
+      <c r="E279" s="8">
+        <v>1159</v>
+      </c>
+      <c r="F279" s="8">
+        <v>28643</v>
+      </c>
+      <c r="G279" s="8">
+        <v>1331</v>
+      </c>
+      <c r="H279" s="8">
+        <v>7891</v>
+      </c>
+      <c r="I279" s="9">
+        <f t="shared" si="14"/>
+        <v>0.14687618806234951</v>
+      </c>
+      <c r="J279" s="9">
+        <f t="shared" si="15"/>
+        <v>0.87077385424492859</v>
+      </c>
+      <c r="K279" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>284</v>
+      </c>
+      <c r="B280" s="8">
+        <v>499</v>
+      </c>
+      <c r="C280" s="8">
+        <v>1903293</v>
+      </c>
+      <c r="D280" s="8">
+        <v>14225</v>
+      </c>
+      <c r="E280" s="8">
+        <v>190</v>
+      </c>
+      <c r="F280" s="8">
+        <v>16369</v>
+      </c>
+      <c r="G280" s="8">
+        <v>1293</v>
+      </c>
+      <c r="H280" s="8">
+        <v>14415</v>
+      </c>
+      <c r="I280" s="9">
+        <f t="shared" si="14"/>
+        <v>1.3180714533472077E-2</v>
+      </c>
+      <c r="J280" s="9">
+        <f t="shared" si="15"/>
+        <v>0.14694508894044858</v>
+      </c>
+      <c r="K280" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>285</v>
+      </c>
+      <c r="B281" s="8">
+        <v>501</v>
+      </c>
+      <c r="C281" s="8">
+        <v>1903558</v>
+      </c>
+      <c r="D281" s="8">
+        <v>34998</v>
+      </c>
+      <c r="E281" s="8">
+        <v>4103</v>
+      </c>
+      <c r="F281" s="8">
+        <v>49850</v>
+      </c>
+      <c r="G281" s="8">
+        <v>1365</v>
+      </c>
+      <c r="H281" s="8">
+        <v>39101</v>
+      </c>
+      <c r="I281" s="9">
+        <f t="shared" si="14"/>
+        <v>0.10493337766297538</v>
+      </c>
+      <c r="J281" s="9">
+        <f t="shared" si="15"/>
+        <v>3.0058608058608058</v>
+      </c>
+      <c r="K281" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>286</v>
+      </c>
+      <c r="B282" s="8">
+        <v>503</v>
+      </c>
+      <c r="C282" s="8">
+        <v>19803231</v>
+      </c>
+      <c r="D282" s="8">
+        <v>27836</v>
+      </c>
+      <c r="E282" s="8">
+        <v>1110</v>
+      </c>
+      <c r="F282" s="8">
+        <v>59204</v>
+      </c>
+      <c r="G282" s="8">
+        <v>1267</v>
+      </c>
+      <c r="H282" s="8">
+        <v>28946</v>
+      </c>
+      <c r="I282" s="9">
+        <f t="shared" si="14"/>
+        <v>3.8347267325364469E-2</v>
+      </c>
+      <c r="J282" s="9">
+        <f t="shared" si="15"/>
+        <v>0.8760852407261247</v>
+      </c>
+      <c r="K282" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>287</v>
+      </c>
+      <c r="B283" s="8">
+        <v>505</v>
+      </c>
+      <c r="C283" s="8">
+        <v>1903332</v>
+      </c>
+      <c r="D283" s="8">
+        <v>11677</v>
+      </c>
+      <c r="E283" s="8">
+        <v>467</v>
+      </c>
+      <c r="F283" s="8">
+        <v>15525</v>
+      </c>
+      <c r="G283" s="8">
+        <v>1210</v>
+      </c>
+      <c r="H283" s="8">
+        <v>12144</v>
+      </c>
+      <c r="I283" s="9">
+        <f t="shared" si="14"/>
+        <v>3.8455204216073784E-2</v>
+      </c>
+      <c r="J283" s="9">
+        <f t="shared" si="15"/>
+        <v>0.3859504132231405</v>
+      </c>
+      <c r="K283" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>288</v>
+      </c>
+      <c r="B284" s="8">
+        <v>508</v>
+      </c>
+      <c r="C284" s="8">
+        <v>1903275</v>
+      </c>
+      <c r="D284" s="8">
+        <v>28261</v>
+      </c>
+      <c r="E284" s="8">
+        <v>1943</v>
+      </c>
+      <c r="F284" s="8">
+        <v>19452</v>
+      </c>
+      <c r="G284" s="8">
+        <v>1310</v>
+      </c>
+      <c r="H284" s="8">
+        <v>30204</v>
+      </c>
+      <c r="I284" s="9">
+        <f t="shared" si="14"/>
+        <v>6.432922791683221E-2</v>
+      </c>
+      <c r="J284" s="9">
+        <f t="shared" si="15"/>
+        <v>1.4832061068702289</v>
+      </c>
+      <c r="K284" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>289</v>
+      </c>
+      <c r="B285" s="8">
+        <v>509</v>
+      </c>
+      <c r="C285" s="8">
+        <v>1903282</v>
+      </c>
+      <c r="D285" s="8">
+        <v>15419</v>
+      </c>
+      <c r="E285" s="8">
+        <v>831</v>
+      </c>
+      <c r="F285" s="8">
+        <v>45805</v>
+      </c>
+      <c r="G285" s="8">
+        <v>1266</v>
+      </c>
+      <c r="H285" s="8">
+        <v>16250</v>
+      </c>
+      <c r="I285" s="9">
+        <f t="shared" si="14"/>
+        <v>5.1138461538461535E-2</v>
+      </c>
+      <c r="J285" s="9">
+        <f t="shared" si="15"/>
+        <v>0.65639810426540279</v>
+      </c>
+      <c r="K285" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>290</v>
+      </c>
+      <c r="B286" s="8">
+        <v>512</v>
+      </c>
+      <c r="C286" s="8">
+        <v>1903333</v>
+      </c>
+      <c r="D286" s="8">
+        <v>65338</v>
+      </c>
+      <c r="E286" s="8">
+        <v>1624</v>
+      </c>
+      <c r="F286" s="8">
+        <v>102263</v>
+      </c>
+      <c r="G286" s="8">
+        <v>1316</v>
+      </c>
+      <c r="H286" s="8">
+        <v>66962</v>
+      </c>
+      <c r="I286" s="9">
+        <f t="shared" si="14"/>
+        <v>2.4252561154087394E-2</v>
+      </c>
+      <c r="J286" s="9">
+        <f t="shared" si="15"/>
+        <v>1.2340425531914894</v>
+      </c>
+      <c r="K286" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>291</v>
+      </c>
+      <c r="B287" s="8">
+        <v>514</v>
+      </c>
+      <c r="C287" s="8">
+        <v>1903334</v>
+      </c>
+      <c r="D287" s="8">
+        <v>66503</v>
+      </c>
+      <c r="E287" s="8">
+        <v>825</v>
+      </c>
+      <c r="F287" s="8">
+        <v>55497</v>
+      </c>
+      <c r="G287" s="8">
+        <v>1236</v>
+      </c>
+      <c r="H287" s="8">
+        <v>67328</v>
+      </c>
+      <c r="I287" s="9">
+        <f t="shared" si="14"/>
+        <v>1.2253445817490494E-2</v>
+      </c>
+      <c r="J287" s="9">
+        <f t="shared" si="15"/>
+        <v>0.66747572815533984</v>
+      </c>
+      <c r="K287" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>292</v>
+      </c>
+      <c r="B288" s="8">
+        <v>516</v>
+      </c>
+      <c r="C288" s="8">
+        <v>1903355</v>
+      </c>
+      <c r="D288" s="8">
+        <v>38701</v>
+      </c>
+      <c r="E288" s="8">
+        <v>1073</v>
+      </c>
+      <c r="F288" s="8">
+        <v>73769</v>
+      </c>
+      <c r="G288" s="8">
+        <v>1253</v>
+      </c>
+      <c r="H288" s="8">
+        <v>39774</v>
+      </c>
+      <c r="I288" s="9">
+        <f t="shared" si="14"/>
+        <v>2.6977422436767737E-2</v>
+      </c>
+      <c r="J288" s="9">
+        <f t="shared" si="15"/>
+        <v>0.85634477254588981</v>
+      </c>
+      <c r="K288" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>293</v>
+      </c>
+      <c r="B289" s="8">
+        <v>517</v>
+      </c>
+      <c r="C289" s="8">
+        <v>1903356</v>
+      </c>
+      <c r="D289" s="8">
+        <v>14397</v>
+      </c>
+      <c r="E289" s="8">
+        <v>2365</v>
+      </c>
+      <c r="F289" s="8">
+        <v>42398</v>
+      </c>
+      <c r="G289" s="8">
+        <v>1266</v>
+      </c>
+      <c r="H289" s="8">
+        <v>16762</v>
+      </c>
+      <c r="I289" s="9">
+        <f t="shared" si="14"/>
+        <v>0.14109294833552083</v>
+      </c>
+      <c r="J289" s="9">
+        <f t="shared" si="15"/>
+        <v>1.868088467614534</v>
+      </c>
+      <c r="K289" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>294</v>
+      </c>
+      <c r="B290" s="8">
+        <v>518</v>
+      </c>
+      <c r="C290" s="8">
+        <v>1903357</v>
+      </c>
+      <c r="D290" s="8">
+        <v>68642</v>
+      </c>
+      <c r="E290" s="8">
+        <v>1477</v>
+      </c>
+      <c r="F290" s="8">
+        <v>71667</v>
+      </c>
+      <c r="G290" s="8">
+        <v>1279</v>
+      </c>
+      <c r="H290" s="8">
+        <v>70119</v>
+      </c>
+      <c r="I290" s="9">
+        <f t="shared" si="14"/>
+        <v>2.1064190875511632E-2</v>
+      </c>
+      <c r="J290" s="9">
+        <f t="shared" si="15"/>
+        <v>1.1548084440969508</v>
+      </c>
+      <c r="K290" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>295</v>
+      </c>
+      <c r="B291" s="8">
+        <v>519</v>
+      </c>
+      <c r="C291" s="8">
+        <v>1903358</v>
+      </c>
+      <c r="D291" s="8">
+        <v>13535</v>
+      </c>
+      <c r="E291" s="8">
+        <v>9895</v>
+      </c>
+      <c r="F291" s="8">
+        <v>36585</v>
+      </c>
+      <c r="G291" s="8">
+        <v>1213</v>
+      </c>
+      <c r="H291" s="8">
+        <v>23430</v>
+      </c>
+      <c r="I291" s="9">
+        <f t="shared" si="14"/>
+        <v>0.42232180964575333</v>
+      </c>
+      <c r="J291" s="9">
+        <f t="shared" si="15"/>
+        <v>8.1574608408903551</v>
+      </c>
+      <c r="K291" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>296</v>
+      </c>
+      <c r="B292" s="8">
+        <v>521</v>
+      </c>
+      <c r="C292" s="8">
+        <v>1903359</v>
+      </c>
+      <c r="D292" s="8">
+        <v>77145</v>
+      </c>
+      <c r="E292" s="8">
+        <v>2110</v>
+      </c>
+      <c r="F292" s="8">
+        <v>51378</v>
+      </c>
+      <c r="G292" s="8">
+        <v>1242</v>
+      </c>
+      <c r="H292" s="8">
+        <v>79255</v>
+      </c>
+      <c r="I292" s="9">
+        <f t="shared" si="14"/>
+        <v>2.6622925998359723E-2</v>
+      </c>
+      <c r="J292" s="9">
+        <f t="shared" si="15"/>
+        <v>1.6988727858293076</v>
+      </c>
+      <c r="K292" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>297</v>
+      </c>
+      <c r="B293" s="8">
+        <v>523</v>
+      </c>
+      <c r="C293" s="8">
+        <v>1903360</v>
+      </c>
+      <c r="D293" s="8">
+        <v>21237</v>
+      </c>
+      <c r="E293" s="8">
+        <v>2100</v>
+      </c>
+      <c r="F293" s="8">
+        <v>133616</v>
+      </c>
+      <c r="G293" s="8">
+        <v>1291</v>
+      </c>
+      <c r="H293" s="8">
+        <v>23337</v>
+      </c>
+      <c r="I293" s="9">
+        <f t="shared" si="14"/>
+        <v>8.9985859364956941E-2</v>
+      </c>
+      <c r="J293" s="9">
+        <f t="shared" si="15"/>
+        <v>1.6266460108443068</v>
+      </c>
+      <c r="K293" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>298</v>
+      </c>
+      <c r="B294" s="8">
+        <v>525</v>
+      </c>
+      <c r="C294" s="8">
+        <v>1903361</v>
+      </c>
+      <c r="D294" s="8">
+        <v>51377</v>
+      </c>
+      <c r="E294" s="8">
+        <v>3997</v>
+      </c>
+      <c r="F294" s="8">
+        <v>63303</v>
+      </c>
+      <c r="G294" s="8">
+        <v>1346</v>
+      </c>
+      <c r="H294" s="8">
+        <v>55374</v>
+      </c>
+      <c r="I294" s="9">
+        <f t="shared" si="14"/>
+        <v>7.2181890417885655E-2</v>
+      </c>
+      <c r="J294" s="9">
+        <f t="shared" si="15"/>
+        <v>2.9695393759286777</v>
+      </c>
+      <c r="K294" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>299</v>
+      </c>
+      <c r="B295" s="8">
+        <v>528</v>
+      </c>
+      <c r="C295" s="8">
+        <v>1903362</v>
+      </c>
+      <c r="D295" s="8">
+        <v>30154</v>
+      </c>
+      <c r="E295" s="8">
+        <v>1448</v>
+      </c>
+      <c r="F295" s="8">
+        <v>126096</v>
+      </c>
+      <c r="G295" s="8">
+        <v>1287</v>
+      </c>
+      <c r="H295" s="8">
+        <v>31602</v>
+      </c>
+      <c r="I295" s="9">
+        <f t="shared" si="14"/>
+        <v>4.5819884817416619E-2</v>
+      </c>
+      <c r="J295" s="9">
+        <f t="shared" si="15"/>
+        <v>1.1250971250971251</v>
+      </c>
+      <c r="K295" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>